--- a/src/services/templates/perUser_templateFolders.xlsx
+++ b/src/services/templates/perUser_templateFolders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/services/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A771F1-A400-F042-8898-121D7B87688E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3607318E-1A6F-4841-86F7-8B3F1EB357AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="7940" windowWidth="23080" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36960" yWindow="5340" windowWidth="23080" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>DisplayName</t>
   </si>
@@ -41,55 +41,53 @@
   </si>
   <si>
     <t>Default</t>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>user001</t>
+  </si>
+  <si>
+    <t>user002</t>
+  </si>
+  <si>
+    <t>user004</t>
+  </si>
+  <si>
+    <t>FolderのID</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>フォルダ名</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>↑このユーザが参照可能な、フォルダの一覧です</t>
+    <rPh sb="7" eb="11">
+      <t xml:space="preserve">サンショウカノウナ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">イチラン </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -124,42 +122,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor auto="1"/>
-        <bgColor auto="1"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -174,42 +142,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -242,38 +180,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -555,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -564,86 +483,146 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B299B7B5-9327-114C-9396-ACA14EDE9334}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="18.5" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="10"/>
+    <col min="1" max="1" width="43.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="11">
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="11">
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="10"/>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>